--- a/biology/Botanique/Solieriaceae/Solieriaceae.xlsx
+++ b/biology/Botanique/Solieriaceae/Solieriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Soleriaceae sont une famille d’algues rouges de l’ordre des Gigartinales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (9 mars 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (9 mars 2019) :
 genre Agardhiella F.Schmitz
 genre Betaphycus Doty
 genre Eucheuma J.Agardh
@@ -534,7 +548,7 @@
 genre Tepoztequiella Núñez-Resendiz, Dreckmann &amp; Sentíes
 genre Tikvahiella Kraft &amp; Gabrielson
 genre Wurdemannia Harvey
-Selon BioLib                    (9 mars 2019)[2] :
+Selon BioLib                    (9 mars 2019) :
 genre Agardhiella F.Schmitz
 genre Eucheuma
 genre Gardneriella
@@ -546,7 +560,7 @@
 genre Sarcodiotheca
 genre Solieria J.Agardh, 1842
 genre Turnerella
-Selon Catalogue of Life                                   (9 mars 2019)[3] :
+Selon Catalogue of Life                                   (9 mars 2019) :
 genre Agardhiella
 genre Betaphycus
 genre Callophycus
@@ -564,7 +578,7 @@
 genre Tacanoosca
 genre Tikvahiella
 genre Wurdemannia
-Selon ITIS      (9 mars 2019)[4] :
+Selon ITIS      (9 mars 2019) :
 genre Agardhiella
 genre Eucheuma
 genre Gardneriella
@@ -575,7 +589,7 @@
 genre Solieria
 genre Turnerella
 genre Wurdemannia Harvey
-Selon NCBI  (9 mars 2019)[5] :
+Selon NCBI  (9 mars 2019) :
 genre Agardhiella F.Schmitz, 1897
 genre Anatheca
 genre Areschougia
@@ -592,9 +606,9 @@
 genre Sarconema Zanardini 1858: 256
 genre Solieria J.Agardh, 1842
 genre Tacanoosca
-Selon Paleobiology Database                   (9 mars 2019)[6] :
+Selon Paleobiology Database                   (9 mars 2019) :
 genre Agardhiellopsis
-Selon World Register of Marine Species                               (9 mars 2019)[7] :
+Selon World Register of Marine Species                               (9 mars 2019) :
 genre Agardhiella F.Schmitz, 1897
 genre Betaphycus Doty, 1996
 genre Eucheuma J.Agardh, 1847
